--- a/results/FrequencyTables/25808449_T7.xlsx
+++ b/results/FrequencyTables/25808449_T7.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.00123571207908557</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.949799196787149</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00108124806919988</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.999073215940686</v>
       </c>
       <c r="G2">
-        <v>0.94</v>
+        <v>0.965091133765833</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00494284831634229</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000617856039542787</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.98671609514983</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00417052826691381</v>
       </c>
       <c r="L2">
-        <v>0.99</v>
+        <v>0.997683039851715</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00123571207908557</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00370713623725672</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.994748223663886</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00278035217794254</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.993049119555144</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0358356502934816</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -545,67 +545,67 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00169910410874266</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.998300895891257</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000308928019771393</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00139017608897127</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00046339202965709</v>
       </c>
       <c r="M3">
-        <v>0.7</v>
+        <v>0.938214396045721</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00123571207908557</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0607043558850788</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="S3">
-        <v>0.01</v>
+        <v>0.0531356194006796</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.999691071980229</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999382143960457</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000772320049428483</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000308928019771393</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000772320049428483</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,58 +613,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.99</v>
+        <v>0.998455359901143</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999227679950571</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0421686746987952</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>0.0287303058387396</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.993821439604572</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00880444856348471</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.995675007723201</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.00169910410874266</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000308928019771393</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.995983935742972</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00417052826691381</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.996138399752858</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00200803212851406</v>
       </c>
       <c r="W4">
-        <v>0.99</v>
+        <v>0.999073215940686</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.962156317578004</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -690,28 +690,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000308928019771393</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00169910410874266</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000308928019771393</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000772320049428483</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.997991967871486</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000772320049428483</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -720,37 +720,37 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.0529811553907939</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.996601791782515</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.934198331788693</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000617856039542787</v>
       </c>
       <c r="S5">
-        <v>0.99</v>
+        <v>0.939759036144578</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00278035217794254</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000154464009885697</v>
       </c>
       <c r="X5">
         <v>0</v>
